--- a/reports.xlsx
+++ b/reports.xlsx
@@ -6,13 +6,13 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Asset issues report" r:id="rId3" sheetId="1"/>
+    <sheet name="Asset Details report" r:id="rId3" sheetId="1"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="31">
   <si>
     <t>Asset Id</t>
   </si>
@@ -42,6 +42,69 @@
   </si>
   <si>
     <t>Assigned To</t>
+  </si>
+  <si>
+    <t>ASSPZWAjGI771</t>
+  </si>
+  <si>
+    <t>Model_00236</t>
+  </si>
+  <si>
+    <t>Dell</t>
+  </si>
+  <si>
+    <t>Serial_123456</t>
+  </si>
+  <si>
+    <t>2022-05-31 00:00:00.0</t>
+  </si>
+  <si>
+    <t>ALLOTTED</t>
+  </si>
+  <si>
+    <t>32GB</t>
+  </si>
+  <si>
+    <t>Amazonzz</t>
+  </si>
+  <si>
+    <t>Sneha Sriramaneni</t>
+  </si>
+  <si>
+    <t>ASSFwKtRPU302</t>
+  </si>
+  <si>
+    <t>Legion 77</t>
+  </si>
+  <si>
+    <t>00070070</t>
+  </si>
+  <si>
+    <t>2022-04-29 00:00:00.0</t>
+  </si>
+  <si>
+    <t>AVAILABLE</t>
+  </si>
+  <si>
+    <t>Rameshwari Lekadh</t>
+  </si>
+  <si>
+    <t>ASSIyaN8IY885</t>
+  </si>
+  <si>
+    <t>Inspiron365</t>
+  </si>
+  <si>
+    <t>dijdajida898978</t>
+  </si>
+  <si>
+    <t>2024-03-27 00:00:00.0</t>
+  </si>
+  <si>
+    <t>8GB</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
@@ -125,40 +188,94 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2"/>
-      <c r="B2"/>
-      <c r="C2"/>
-      <c r="D2"/>
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
       <c r="E2"/>
-      <c r="F2"/>
-      <c r="G2"/>
-      <c r="H2"/>
-      <c r="I2"/>
-      <c r="J2"/>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3"/>
-      <c r="B3"/>
-      <c r="C3"/>
-      <c r="D3"/>
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
       <c r="E3"/>
-      <c r="F3"/>
-      <c r="G3"/>
-      <c r="H3"/>
-      <c r="I3"/>
-      <c r="J3"/>
+      <c r="F3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="4">
-      <c r="A4"/>
-      <c r="B4"/>
-      <c r="C4"/>
-      <c r="D4"/>
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>27</v>
+      </c>
       <c r="E4"/>
-      <c r="F4"/>
-      <c r="G4"/>
-      <c r="H4"/>
-      <c r="I4"/>
-      <c r="J4"/>
+      <c r="F4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" t="s">
+        <v>30</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
